--- a/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_quotes.xlsx
+++ b/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_quotes.xlsx
@@ -44,10 +44,10 @@
     <t>quote</t>
   </si>
   <si>
-    <t>num_tokens</t>
-  </si>
-  <si>
-    <t>proportion_of_total_tokens</t>
+    <t>num_words</t>
+  </si>
+  <si>
+    <t>proportion_of_total_words</t>
   </si>
   <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2007/aug/30/john-mccain/mccain-picks-and-chooses-in-attack-on-clinton/</t>
@@ -62,7 +62,7 @@
     <t>"The fact that the New York senator can reverse her position on an issue of grave importance to our national security in a few days sends the wrong signal to our enemies in Iraq and our own troops on the ground. We must continue to support General Petraeus and the new counterinsurgency campaign to give us the best chance to succeed. Following the path to begin an 'immediate withdrawal' would be a grave mistake."</t>
   </si>
   <si>
-    <t>proportion_quote_tokens_to_total_text</t>
+    <t>proportion_quote_words_to_total_words</t>
   </si>
   <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2008/jun/17/republican-national-committee-republican/no-proof-rezko-saved-obama-money-on-home/</t>
@@ -1929,10 +1929,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>0.06622516556291391</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1943,10 +1943,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>0.119205298013245</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1957,10 +1957,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>0.5364238410596026</v>
+        <v>0.5873015873015873</v>
       </c>
     </row>
   </sheetData>
@@ -1994,7 +1994,7 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>0.1584699453551912</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>0.04347826086956522</v>
+        <v>0.04724409448818898</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>102</v>
       </c>
       <c r="B4">
-        <v>0.521978021978022</v>
+        <v>0.5898305084745763</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>103</v>
       </c>
       <c r="B5">
-        <v>0.03184713375796178</v>
+        <v>0.02768166089965398</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>104</v>
       </c>
       <c r="B6">
-        <v>0.5946291560102301</v>
+        <v>0.6593406593406594</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>105</v>
       </c>
       <c r="B7">
-        <v>0.2218214607754734</v>
+        <v>0.2461197339246119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>106</v>
       </c>
       <c r="B8">
-        <v>0.09494949494949495</v>
+        <v>0.113022113022113</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>107</v>
       </c>
       <c r="B9">
-        <v>0.06209573091849935</v>
+        <v>0.0650887573964497</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>109</v>
       </c>
       <c r="B11">
-        <v>0.5499207606973058</v>
+        <v>0.6088631984585742</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>110</v>
       </c>
       <c r="B12">
-        <v>0.3100303951367781</v>
+        <v>0.3484573502722323</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>111</v>
       </c>
       <c r="B13">
-        <v>0.426829268292683</v>
+        <v>0.4814814814814815</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>112</v>
       </c>
       <c r="B14">
-        <v>0.1833333333333333</v>
+        <v>0.186046511627907</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>113</v>
       </c>
       <c r="B15">
-        <v>0.08064516129032258</v>
+        <v>0.07964601769911504</v>
       </c>
     </row>
   </sheetData>
@@ -2152,10 +2152,10 @@
         <v>191</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>0.09385113268608414</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2166,10 +2166,10 @@
         <v>192</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>0.1326860841423948</v>
+        <v>0.12890625</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2180,10 +2180,10 @@
         <v>193</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>0.02912621359223301</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2194,10 +2194,10 @@
         <v>194</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>0.09061488673139159</v>
+        <v>0.09765625</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2208,10 +2208,10 @@
         <v>195</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>0.07981220657276995</v>
+        <v>0.08355091383812011</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2222,10 +2222,10 @@
         <v>196</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.07276995305164319</v>
+        <v>0.0783289817232376</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2236,10 +2236,10 @@
         <v>197</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>0.0892018779342723</v>
+        <v>0.09399477806788512</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2253,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>0.002747252747252747</v>
+        <v>0.00361794500723589</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2264,10 +2264,10 @@
         <v>199</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0.006043956043956044</v>
+        <v>0.004341534008683068</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2278,10 +2278,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>0.007142857142857143</v>
+        <v>0.00723589001447178</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2295,7 +2295,7 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>0.004395604395604396</v>
+        <v>0.005788712011577424</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2309,7 +2309,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>0.003296703296703297</v>
+        <v>0.004341534008683068</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2320,10 +2320,10 @@
         <v>203</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>0.00989010989010989</v>
+        <v>0.01230101302460203</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2334,10 +2334,10 @@
         <v>204</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>0.02197802197802198</v>
+        <v>0.02532561505065123</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2351,7 +2351,7 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>0.006593406593406593</v>
+        <v>0.008683068017366137</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2362,10 +2362,10 @@
         <v>206</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>0.01428571428571429</v>
+        <v>0.01664254703328509</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2376,10 +2376,10 @@
         <v>207</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>0.01153846153846154</v>
+        <v>0.01157742402315485</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2390,10 +2390,10 @@
         <v>208</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>0.007692307692307693</v>
+        <v>0.007959479015918957</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2404,10 +2404,10 @@
         <v>209</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>0.02087912087912088</v>
+        <v>0.02387843704775687</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2418,10 +2418,10 @@
         <v>210</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>0.008241758241758242</v>
+        <v>0.008683068017366137</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2432,10 +2432,10 @@
         <v>211</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>0.004945054945054945</v>
+        <v>0.004341534008683068</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2446,10 +2446,10 @@
         <v>212</v>
       </c>
       <c r="C23">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>0.02857142857142857</v>
+        <v>0.0296671490593343</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2460,10 +2460,10 @@
         <v>213</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>0.008241758241758242</v>
+        <v>0.008683068017366137</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2474,10 +2474,10 @@
         <v>214</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>0.007692307692307693</v>
+        <v>0.007959479015918957</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2488,10 +2488,10 @@
         <v>215</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>0.005494505494505495</v>
+        <v>0.005065123010130246</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2502,10 +2502,10 @@
         <v>216</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>0.004945054945054945</v>
+        <v>0.005065123010130246</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2516,10 +2516,10 @@
         <v>217</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>0.01373626373626374</v>
+        <v>0.01591895803183791</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2530,10 +2530,10 @@
         <v>218</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>0.004395604395604396</v>
+        <v>0.002894356005788712</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2544,10 +2544,10 @@
         <v>219</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>0.005494505494505495</v>
+        <v>0.004341534008683068</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2558,10 +2558,10 @@
         <v>220</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>0.01318681318681319</v>
+        <v>0.01519536903039074</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2572,10 +2572,10 @@
         <v>221</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>0.01098901098901099</v>
+        <v>0.01230101302460203</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2586,10 +2586,10 @@
         <v>222</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>0.004395604395604396</v>
+        <v>0.00361794500723589</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2603,7 +2603,7 @@
         <v>26</v>
       </c>
       <c r="D34">
-        <v>0.07162534435261708</v>
+        <v>0.07878787878787878</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2614,10 +2614,10 @@
         <v>224</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>0.03581267217630854</v>
+        <v>0.03636363636363636</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2631,7 +2631,7 @@
         <v>22</v>
       </c>
       <c r="D36">
-        <v>0.06060606060606061</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2642,10 +2642,10 @@
         <v>226</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>0.1115384615384615</v>
+        <v>0.1222707423580786</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2659,7 +2659,7 @@
         <v>9</v>
       </c>
       <c r="D38">
-        <v>0.03461538461538462</v>
+        <v>0.03930131004366812</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2670,10 +2670,10 @@
         <v>228</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>0.07142857142857142</v>
+        <v>0.07341772151898734</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2684,10 +2684,10 @@
         <v>229</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>0.04377880184331797</v>
+        <v>0.04556962025316456</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2701,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>0.005128205128205128</v>
+        <v>0.006430868167202572</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2712,10 +2712,10 @@
         <v>231</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>0.02307692307692308</v>
+        <v>0.02733118971061093</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2726,10 +2726,10 @@
         <v>232</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>0.007692307692307693</v>
+        <v>0.008038585209003215</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2740,10 +2740,10 @@
         <v>233</v>
       </c>
       <c r="C44">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>0.03205128205128205</v>
+        <v>0.03858520900321544</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2754,10 +2754,10 @@
         <v>234</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>0.03589743589743589</v>
+        <v>0.04340836012861737</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2768,10 +2768,10 @@
         <v>235</v>
       </c>
       <c r="C46">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>0.03974358974358974</v>
+        <v>0.04823151125401929</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2782,10 +2782,10 @@
         <v>236</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>0.01538461538461539</v>
+        <v>0.01768488745980707</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2796,10 +2796,10 @@
         <v>237</v>
       </c>
       <c r="C48">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D48">
-        <v>0.06923076923076923</v>
+        <v>0.07234726688102894</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2810,10 +2810,10 @@
         <v>238</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>0.01538461538461539</v>
+        <v>0.01446945337620579</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2824,10 +2824,10 @@
         <v>239</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>0.04487179487179487</v>
+        <v>0.04823151125401929</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2838,10 +2838,10 @@
         <v>240</v>
       </c>
       <c r="C51">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D51">
-        <v>0.0858974358974359</v>
+        <v>0.09163987138263666</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2852,10 +2852,10 @@
         <v>241</v>
       </c>
       <c r="C52">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D52">
-        <v>0.06794871794871794</v>
+        <v>0.07234726688102894</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2866,10 +2866,10 @@
         <v>242</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>0.04285714285714286</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2880,10 +2880,10 @@
         <v>243</v>
       </c>
       <c r="C54">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D54">
-        <v>0.319047619047619</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2897,7 +2897,7 @@
         <v>22</v>
       </c>
       <c r="D55">
-        <v>0.0411214953271028</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2908,10 +2908,10 @@
         <v>245</v>
       </c>
       <c r="C56">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D56">
-        <v>0.1121495327102804</v>
+        <v>0.1241685144124169</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2922,10 +2922,10 @@
         <v>246</v>
       </c>
       <c r="C57">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>0.05233644859813084</v>
+        <v>0.05099778270509978</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2936,10 +2936,10 @@
         <v>247</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>0.01495327102803738</v>
+        <v>0.01330376940133038</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2950,10 +2950,10 @@
         <v>248</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D59">
-        <v>0.0205607476635514</v>
+        <v>0.01773835920177384</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2964,10 +2964,10 @@
         <v>249</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>0.01682242990654206</v>
+        <v>0.01552106430155211</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2978,10 +2978,10 @@
         <v>250</v>
       </c>
       <c r="C61">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D61">
-        <v>0.06542056074766354</v>
+        <v>0.06651884700665188</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2992,10 +2992,10 @@
         <v>251</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>0.01682242990654206</v>
+        <v>0.01108647450110865</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3006,10 +3006,10 @@
         <v>252</v>
       </c>
       <c r="C63">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D63">
-        <v>0.1415929203539823</v>
+        <v>0.1325966850828729</v>
       </c>
     </row>
   </sheetData>
@@ -3102,7 +3102,7 @@
         <v>181</v>
       </c>
       <c r="B2">
-        <v>0.3462783171521036</v>
+        <v>0.359375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>182</v>
       </c>
       <c r="B3">
-        <v>0.2417840375586854</v>
+        <v>0.2558746736292428</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>183</v>
       </c>
       <c r="B4">
-        <v>0.2368131868131869</v>
+        <v>0.2554269175108537</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>184</v>
       </c>
       <c r="B5">
-        <v>0.1680440771349862</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>185</v>
       </c>
       <c r="B6">
-        <v>0.1461538461538462</v>
+        <v>0.1615720524017467</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>186</v>
       </c>
       <c r="B7">
-        <v>0.1152073732718894</v>
+        <v>0.1189873417721519</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>187</v>
       </c>
       <c r="B8">
-        <v>0.4423076923076923</v>
+        <v>0.4887459807073956</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>188</v>
       </c>
       <c r="B9">
-        <v>0.3619047619047619</v>
+        <v>0.3555555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>189</v>
       </c>
       <c r="B10">
-        <v>0.3401869158878505</v>
+        <v>0.3481152993348116</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>190</v>
       </c>
       <c r="B11">
-        <v>0.1415929203539823</v>
+        <v>0.1325966850828729</v>
       </c>
     </row>
   </sheetData>
@@ -3227,7 +3227,7 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>0.06818181818181818</v>
+        <v>0.08490566037735849</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3238,10 +3238,10 @@
         <v>266</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>0.1893939393939394</v>
+        <v>0.2075471698113208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3252,10 +3252,10 @@
         <v>267</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0.125</v>
+        <v>0.1179245283018868</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3266,10 +3266,10 @@
         <v>268</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>0.02597402597402598</v>
+        <v>0.02610441767068273</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3283,7 +3283,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>0.02597402597402598</v>
+        <v>0.02811244979919679</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3294,10 +3294,10 @@
         <v>270</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>0.04823747680890538</v>
+        <v>0.05020080321285141</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3311,7 +3311,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>0.007421150278293136</v>
+        <v>0.008032128514056224</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3322,10 +3322,10 @@
         <v>272</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>0.02597402597402598</v>
+        <v>0.02610441767068273</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3339,7 +3339,7 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>0.02782931354359926</v>
+        <v>0.03012048192771084</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3350,10 +3350,10 @@
         <v>274</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>0.01669758812615955</v>
+        <v>0.01606425702811245</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3364,10 +3364,10 @@
         <v>275</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>0.06679035250463822</v>
+        <v>0.07028112449799197</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3378,10 +3378,10 @@
         <v>276</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>0.04449648711943794</v>
+        <v>0.04475524475524476</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3392,10 +3392,10 @@
         <v>277</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>0.02107728337236534</v>
+        <v>0.02237762237762238</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3406,10 +3406,10 @@
         <v>278</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>0.03864168618266979</v>
+        <v>0.04055944055944056</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3423,7 +3423,7 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>0.00936768149882904</v>
+        <v>0.01118881118881119</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3437,7 +3437,7 @@
         <v>33</v>
       </c>
       <c r="D17">
-        <v>0.03864168618266979</v>
+        <v>0.04615384615384616</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3448,10 +3448,10 @@
         <v>281</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>0.05035128805620609</v>
+        <v>0.05454545454545454</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3462,10 +3462,10 @@
         <v>282</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>0.04098360655737705</v>
+        <v>0.03916083916083916</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3476,10 +3476,10 @@
         <v>283</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>0.1857707509881423</v>
+        <v>0.1863636363636364</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3490,10 +3490,10 @@
         <v>284</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D21">
-        <v>0.2569169960474308</v>
+        <v>0.2545454545454545</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3504,10 +3504,10 @@
         <v>285</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>0.03621169916434541</v>
+        <v>0.03311258278145696</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3518,10 +3518,10 @@
         <v>286</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>0.07242339832869081</v>
+        <v>0.07947019867549669</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3532,10 +3532,10 @@
         <v>287</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>0.2406015037593985</v>
+        <v>0.2575107296137339</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3546,10 +3546,10 @@
         <v>288</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>0.06686046511627906</v>
+        <v>0.07092198581560284</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3560,10 +3560,10 @@
         <v>289</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>0.03365384615384615</v>
+        <v>0.03494623655913978</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3577,7 +3577,7 @@
         <v>14</v>
       </c>
       <c r="D27">
-        <v>0.03365384615384615</v>
+        <v>0.03763440860215054</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3588,10 +3588,10 @@
         <v>291</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>0.05208333333333334</v>
+        <v>0.05579399141630902</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3602,10 +3602,10 @@
         <v>292</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>0.1145833333333333</v>
+        <v>0.1158798283261803</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3616,10 +3616,10 @@
         <v>293</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>0.05902777777777778</v>
+        <v>0.06008583690987124</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3630,10 +3630,10 @@
         <v>294</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>0.119533527696793</v>
+        <v>0.1233766233766234</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="D32">
-        <v>0.02915451895043732</v>
+        <v>0.03246753246753246</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3661,7 +3661,7 @@
         <v>9</v>
       </c>
       <c r="D33">
-        <v>0.01906779661016949</v>
+        <v>0.02205882352941177</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3675,7 +3675,7 @@
         <v>31</v>
       </c>
       <c r="D34">
-        <v>0.06567796610169492</v>
+        <v>0.07598039215686274</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3689,7 +3689,7 @@
         <v>17</v>
       </c>
       <c r="D35">
-        <v>0.03601694915254237</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3703,7 +3703,7 @@
         <v>20</v>
       </c>
       <c r="D36">
-        <v>0.0423728813559322</v>
+        <v>0.04901960784313725</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3714,10 +3714,10 @@
         <v>300</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>0.05296610169491525</v>
+        <v>0.05392156862745098</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3728,10 +3728,10 @@
         <v>301</v>
       </c>
       <c r="C38">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D38">
-        <v>0.1779661016949153</v>
+        <v>0.1911764705882353</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3742,10 +3742,10 @@
         <v>302</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>0.05508474576271186</v>
+        <v>0.05637254901960784</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3756,10 +3756,10 @@
         <v>303</v>
       </c>
       <c r="C40">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>0.07203389830508475</v>
+        <v>0.07107843137254902</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3770,10 +3770,10 @@
         <v>304</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>0.1176470588235294</v>
+        <v>0.1238095238095238</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3784,10 +3784,10 @@
         <v>305</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>0.1050420168067227</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3801,7 +3801,7 @@
         <v>7</v>
       </c>
       <c r="D43">
-        <v>0.02941176470588235</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3874,7 @@
         <v>253</v>
       </c>
       <c r="B2">
-        <v>0.3825757575757576</v>
+        <v>0.410377358490566</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>254</v>
       </c>
       <c r="B3">
-        <v>0.2448979591836735</v>
+        <v>0.2550200803212851</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>255</v>
       </c>
       <c r="B4">
-        <v>0.243559718969555</v>
+        <v>0.2587412587412588</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>256</v>
       </c>
       <c r="B5">
-        <v>0.4426877470355731</v>
+        <v>0.4409090909090909</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>257</v>
       </c>
       <c r="B6">
-        <v>0.1086350974930362</v>
+        <v>0.1125827814569536</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>258</v>
       </c>
       <c r="B7">
-        <v>0.2406015037593985</v>
+        <v>0.2575107296137339</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>259</v>
       </c>
       <c r="B8">
-        <v>0.06686046511627906</v>
+        <v>0.07092198581560284</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>260</v>
       </c>
       <c r="B9">
-        <v>0.0673076923076923</v>
+        <v>0.07258064516129031</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>261</v>
       </c>
       <c r="B10">
-        <v>0.2256944444444444</v>
+        <v>0.2317596566523605</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>262</v>
       </c>
       <c r="B11">
-        <v>0.1486880466472303</v>
+        <v>0.1558441558441558</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>263</v>
       </c>
       <c r="B12">
-        <v>0.5211864406779662</v>
+        <v>0.5612745098039216</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>264</v>
       </c>
       <c r="B13">
-        <v>0.2521008403361344</v>
+        <v>0.2571428571428572</v>
       </c>
     </row>
   </sheetData>
@@ -4014,10 +4014,10 @@
         <v>315</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.02341137123745819</v>
+        <v>0.02922077922077922</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4028,10 +4028,10 @@
         <v>316</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0.01003344481605351</v>
+        <v>0.01082251082251082</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4042,10 +4042,10 @@
         <v>317</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>0.01672240802675585</v>
+        <v>0.02056277056277056</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4056,10 +4056,10 @@
         <v>318</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>0.03511705685618729</v>
+        <v>0.04112554112554113</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4070,10 +4070,10 @@
         <v>319</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>0.03929765886287626</v>
+        <v>0.04653679653679654</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4087,7 +4087,7 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>0.01588628762541806</v>
+        <v>0.02056277056277056</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4098,10 +4098,10 @@
         <v>321</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>0.01923076923076923</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4115,7 +4115,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0.006688963210702341</v>
+        <v>0.008658008658008658</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4126,10 +4126,10 @@
         <v>323</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>0.01839464882943144</v>
+        <v>0.02164502164502164</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4140,10 +4140,10 @@
         <v>324</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>0.01672240802675585</v>
+        <v>0.01731601731601732</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4154,10 +4154,10 @@
         <v>325</v>
       </c>
       <c r="C12">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>0.1347962382445141</v>
+        <v>0.1532567049808429</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4168,10 +4168,10 @@
         <v>326</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>0.04702194357366771</v>
+        <v>0.04597701149425287</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4182,10 +4182,10 @@
         <v>327</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>0.03830645161290323</v>
+        <v>0.04415584415584416</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4199,7 +4199,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.01209677419354839</v>
+        <v>0.01558441558441558</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4213,7 +4213,7 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>0.02016129032258064</v>
+        <v>0.02597402597402598</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4224,10 +4224,10 @@
         <v>330</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>0.04032258064516129</v>
+        <v>0.04155844155844156</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4241,7 +4241,7 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>0.02016129032258064</v>
+        <v>0.02597402597402598</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4252,10 +4252,10 @@
         <v>332</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>0.03225806451612903</v>
+        <v>0.03636363636363636</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4266,10 +4266,10 @@
         <v>333</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>0.03024193548387097</v>
+        <v>0.03116883116883117</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4280,10 +4280,10 @@
         <v>334</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>0.4012738853503185</v>
+        <v>0.4384615384615385</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4297,7 +4297,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>0.03980099502487562</v>
+        <v>0.04624277456647399</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4311,7 +4311,7 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>0.04477611940298507</v>
+        <v>0.05202312138728324</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4322,10 +4322,10 @@
         <v>337</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>0.1293532338308458</v>
+        <v>0.1445086705202312</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4339,7 +4339,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>0.02797202797202797</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4350,10 +4350,10 @@
         <v>339</v>
       </c>
       <c r="C26">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>0.04277643260694108</v>
+        <v>0.04853387259858443</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4364,10 +4364,10 @@
         <v>340</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>0.005649717514124294</v>
+        <v>0.006066734074823054</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4378,10 +4378,10 @@
         <v>341</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>0.01694915254237288</v>
+        <v>0.02022244691607684</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4392,10 +4392,10 @@
         <v>342</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>0.01129943502824859</v>
+        <v>0.01011122345803842</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4406,10 +4406,10 @@
         <v>343</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>0.009685230024213076</v>
+        <v>0.01112234580384226</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4420,10 +4420,10 @@
         <v>344</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>0.007263922518159807</v>
+        <v>0.008088978766430738</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4434,10 +4434,10 @@
         <v>345</v>
       </c>
       <c r="C32">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D32">
-        <v>0.04600484261501211</v>
+        <v>0.05358948432760364</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4451,7 +4451,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>0.004035512510088781</v>
+        <v>0.005055611729019211</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4462,10 +4462,10 @@
         <v>347</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>0.009685230024213076</v>
+        <v>0.01011122345803842</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4479,7 +4479,7 @@
         <v>15</v>
       </c>
       <c r="D35">
-        <v>0.01210653753026634</v>
+        <v>0.01516683518705763</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4493,7 +4493,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>0.00645682001614205</v>
+        <v>0.008088978766430738</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4507,7 +4507,7 @@
         <v>18</v>
       </c>
       <c r="D37">
-        <v>0.01452784503631961</v>
+        <v>0.01820020222446916</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4518,10 +4518,10 @@
         <v>351</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>0.005649717514124294</v>
+        <v>0.004044489383215369</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4532,10 +4532,10 @@
         <v>352</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>0.008071025020177562</v>
+        <v>0.005055611729019211</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4546,10 +4546,10 @@
         <v>353</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D40">
-        <v>0.02340597255851493</v>
+        <v>0.0262891809908999</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4560,10 +4560,10 @@
         <v>354</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>0.007263922518159807</v>
+        <v>0.005055611729019211</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4574,10 +4574,10 @@
         <v>355</v>
       </c>
       <c r="C42">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>0.06295399515738499</v>
+        <v>0.06066734074823053</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4588,10 +4588,10 @@
         <v>356</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>0.00645682001614205</v>
+        <v>0.004044489383215369</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4602,10 +4602,10 @@
         <v>315</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>0.02341137123745819</v>
+        <v>0.02922077922077922</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4616,10 +4616,10 @@
         <v>316</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>0.01003344481605351</v>
+        <v>0.01082251082251082</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4630,10 +4630,10 @@
         <v>317</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>0.01672240802675585</v>
+        <v>0.02056277056277056</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4644,10 +4644,10 @@
         <v>318</v>
       </c>
       <c r="C47">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D47">
-        <v>0.03511705685618729</v>
+        <v>0.04112554112554113</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4658,10 +4658,10 @@
         <v>319</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D48">
-        <v>0.03929765886287626</v>
+        <v>0.04653679653679654</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4675,7 +4675,7 @@
         <v>19</v>
       </c>
       <c r="D49">
-        <v>0.01588628762541806</v>
+        <v>0.02056277056277056</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4686,10 +4686,10 @@
         <v>321</v>
       </c>
       <c r="C50">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>0.01923076923076923</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4703,7 +4703,7 @@
         <v>8</v>
       </c>
       <c r="D51">
-        <v>0.006688963210702341</v>
+        <v>0.008658008658008658</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4714,10 +4714,10 @@
         <v>323</v>
       </c>
       <c r="C52">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>0.01839464882943144</v>
+        <v>0.02164502164502164</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4728,10 +4728,10 @@
         <v>324</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>0.01672240802675585</v>
+        <v>0.01731601731601732</v>
       </c>
     </row>
   </sheetData>
@@ -4814,7 +4814,7 @@
         <v>307</v>
       </c>
       <c r="B2">
-        <v>0.201505016722408</v>
+        <v>0.2391774891774892</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>308</v>
       </c>
       <c r="B3">
-        <v>0.1818181818181818</v>
+        <v>0.1992337164750958</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>309</v>
       </c>
       <c r="B4">
-        <v>0.1935483870967742</v>
+        <v>0.2207792207792208</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>310</v>
       </c>
       <c r="B5">
-        <v>0.4012738853503185</v>
+        <v>0.4384615384615385</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>311</v>
       </c>
       <c r="B6">
-        <v>0.2139303482587065</v>
+        <v>0.2427745664739885</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>312</v>
       </c>
       <c r="B7">
-        <v>0.02797202797202797</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>313</v>
       </c>
       <c r="B8">
-        <v>0.3002421307506054</v>
+        <v>0.3195146612740142</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>314</v>
       </c>
       <c r="B9">
-        <v>0.201505016722408</v>
+        <v>0.2391774891774892</v>
       </c>
     </row>
   </sheetData>
@@ -4918,10 +4918,10 @@
         <v>369</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>0.06696428571428571</v>
+        <v>0.07446808510638298</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4932,10 +4932,10 @@
         <v>370</v>
       </c>
       <c r="C3">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>0.28125</v>
+        <v>0.3031914893617021</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4946,10 +4946,10 @@
         <v>371</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>0.0541871921182266</v>
+        <v>0.05113636363636364</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4960,10 +4960,10 @@
         <v>372</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>0.2660098522167488</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4974,10 +4974,10 @@
         <v>373</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.1847826086956522</v>
+        <v>0.1933333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4991,7 +4991,7 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>0.125</v>
+        <v>0.1533333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5005,7 +5005,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.02717391304347826</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5016,10 +5016,10 @@
         <v>376</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>0.3478260869565217</v>
+        <v>0.3533333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5033,7 +5033,7 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>0.008733624454148471</v>
+        <v>0.01169590643274854</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5047,7 +5047,7 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>0.01528384279475982</v>
+        <v>0.02046783625730994</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5058,10 +5058,10 @@
         <v>379</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>0.05458515283842795</v>
+        <v>0.06432748538011696</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5075,7 +5075,7 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>0.04467353951890034</v>
+        <v>0.05078125</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5086,10 +5086,10 @@
         <v>381</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>0.07560137457044673</v>
+        <v>0.08203125</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5103,7 +5103,7 @@
         <v>24</v>
       </c>
       <c r="D15">
-        <v>0.09561752988047809</v>
+        <v>0.1100917431192661</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5117,7 +5117,7 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>0.06374501992031872</v>
+        <v>0.07339449541284404</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5128,10 +5128,10 @@
         <v>384</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>0.1354581673306773</v>
+        <v>0.1467889908256881</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5142,10 +5142,10 @@
         <v>385</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>0.0496969696969697</v>
+        <v>0.05028735632183908</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5159,7 +5159,7 @@
         <v>15</v>
       </c>
       <c r="D19">
-        <v>0.01818181818181818</v>
+        <v>0.02155172413793104</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5173,7 +5173,7 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>0.0101010101010101</v>
+        <v>0.01226993865030675</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5184,10 +5184,10 @@
         <v>388</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>0.06397306397306397</v>
+        <v>0.06952965235173825</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5198,10 +5198,10 @@
         <v>389</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>0.07744107744107744</v>
+        <v>0.08179959100204499</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5212,10 +5212,10 @@
         <v>390</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>0.05555555555555555</v>
+        <v>0.065439672801636</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5226,10 +5226,10 @@
         <v>391</v>
       </c>
       <c r="C24">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>0.0707070707070707</v>
+        <v>0.08384458077709611</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5240,10 +5240,10 @@
         <v>392</v>
       </c>
       <c r="C25">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>0.06228956228956229</v>
+        <v>0.06748466257668712</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5254,10 +5254,10 @@
         <v>393</v>
       </c>
       <c r="C26">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D26">
-        <v>0.08080808080808081</v>
+        <v>0.08384458077709611</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5268,10 +5268,10 @@
         <v>394</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>0.04545454545454546</v>
+        <v>0.049079754601227</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5285,7 +5285,7 @@
         <v>26</v>
       </c>
       <c r="D28">
-        <v>0.0377906976744186</v>
+        <v>0.04269293924466339</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5296,10 +5296,10 @@
         <v>396</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>0.0436046511627907</v>
+        <v>0.04269293924466339</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5310,10 +5310,10 @@
         <v>397</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>0.02180232558139535</v>
+        <v>0.02134646962233169</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5324,10 +5324,10 @@
         <v>398</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>0.04796511627906977</v>
+        <v>0.04926108374384237</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5341,7 +5341,7 @@
         <v>16</v>
       </c>
       <c r="D32">
-        <v>0.02325581395348837</v>
+        <v>0.02627257799671593</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5352,10 +5352,10 @@
         <v>400</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>0.01162790697674419</v>
+        <v>0.01149425287356322</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5366,10 +5366,10 @@
         <v>401</v>
       </c>
       <c r="C34">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D34">
-        <v>0.4732824427480916</v>
+        <v>0.4905660377358491</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5383,7 +5383,7 @@
         <v>11</v>
       </c>
       <c r="D35">
-        <v>0.05945945945945946</v>
+        <v>0.07482993197278912</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5394,10 +5394,10 @@
         <v>403</v>
       </c>
       <c r="C36">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>0.227027027027027</v>
+        <v>0.2448979591836735</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5408,10 +5408,10 @@
         <v>404</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>0.05555555555555555</v>
+        <v>0.05952380952380952</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5422,10 +5422,10 @@
         <v>405</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>0.04487179487179487</v>
+        <v>0.04523809523809524</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5436,10 +5436,10 @@
         <v>406</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>0.03846153846153846</v>
+        <v>0.0380952380952381</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5450,10 +5450,10 @@
         <v>407</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>0.05341880341880342</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5464,10 +5464,10 @@
         <v>408</v>
       </c>
       <c r="C41">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D41">
-        <v>0.1324786324786325</v>
+        <v>0.1357142857142857</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5478,10 +5478,10 @@
         <v>409</v>
       </c>
       <c r="C42">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>0.1047008547008547</v>
+        <v>0.09761904761904762</v>
       </c>
     </row>
   </sheetData>
@@ -5553,7 +5553,7 @@
         <v>357</v>
       </c>
       <c r="B2">
-        <v>0.3482142857142857</v>
+        <v>0.3776595744680851</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5561,7 +5561,7 @@
         <v>358</v>
       </c>
       <c r="B3">
-        <v>0.3201970443349754</v>
+        <v>0.3238636363636364</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5569,7 +5569,7 @@
         <v>359</v>
       </c>
       <c r="B4">
-        <v>0.6847826086956521</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5577,7 +5577,7 @@
         <v>360</v>
       </c>
       <c r="B5">
-        <v>0.07860262008733625</v>
+        <v>0.09649122807017543</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5585,7 +5585,7 @@
         <v>361</v>
       </c>
       <c r="B6">
-        <v>0.1202749140893471</v>
+        <v>0.1328125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5593,7 +5593,7 @@
         <v>362</v>
       </c>
       <c r="B7">
-        <v>0.2948207171314741</v>
+        <v>0.3302752293577982</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5601,7 +5601,7 @@
         <v>363</v>
       </c>
       <c r="B8">
-        <v>0.06787878787878787</v>
+        <v>0.07183908045977011</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5609,7 +5609,7 @@
         <v>364</v>
       </c>
       <c r="B9">
-        <v>0.4663299663299663</v>
+        <v>0.5132924335378324</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5617,7 +5617,7 @@
         <v>365</v>
       </c>
       <c r="B10">
-        <v>0.1860465116279069</v>
+        <v>0.19376026272578</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5625,7 +5625,7 @@
         <v>366</v>
       </c>
       <c r="B11">
-        <v>0.4732824427480916</v>
+        <v>0.4905660377358491</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5633,7 +5633,7 @@
         <v>367</v>
       </c>
       <c r="B12">
-        <v>0.2864864864864865</v>
+        <v>0.3197278911564626</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5641,7 +5641,7 @@
         <v>368</v>
       </c>
       <c r="B13">
-        <v>0.4294871794871795</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -5693,10 +5693,10 @@
         <v>422</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.02410714285714286</v>
+        <v>0.02607823470411234</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5710,7 +5710,7 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>0.01428571428571429</v>
+        <v>0.0160481444332999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5721,10 +5721,10 @@
         <v>424</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>0.03928571428571428</v>
+        <v>0.04212637913741224</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5735,10 +5735,10 @@
         <v>425</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.0703125</v>
+        <v>0.07926829268292683</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5749,10 +5749,10 @@
         <v>426</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>0.1796875</v>
+        <v>0.1859756097560976</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5763,10 +5763,10 @@
         <v>427</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>0.1171875</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5777,10 +5777,10 @@
         <v>428</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>0.01444043321299639</v>
+        <v>0.01470588235294118</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5791,10 +5791,10 @@
         <v>429</v>
       </c>
       <c r="C9">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>0.08656330749354005</v>
+        <v>0.08898305084745763</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5805,10 +5805,10 @@
         <v>430</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>0.0400516795865633</v>
+        <v>0.03954802259887006</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5819,10 +5819,10 @@
         <v>431</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>0.020671834625323</v>
+        <v>0.0211864406779661</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5836,7 +5836,7 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>0.01679586563307494</v>
+        <v>0.01836158192090396</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5850,7 +5850,7 @@
         <v>54</v>
       </c>
       <c r="D13">
-        <v>0.05818965517241379</v>
+        <v>0.06724782067247821</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5861,10 +5861,10 @@
         <v>434</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>0.03448275862068965</v>
+        <v>0.03860523038605231</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5875,10 +5875,10 @@
         <v>435</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>0.03448275862068965</v>
+        <v>0.037359900373599</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5892,7 +5892,7 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>0.02262931034482759</v>
+        <v>0.0261519302615193</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5903,10 +5903,10 @@
         <v>437</v>
       </c>
       <c r="C17">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>0.05926724137931035</v>
+        <v>0.06724782067247821</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5917,10 +5917,10 @@
         <v>438</v>
       </c>
       <c r="C18">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>0.06896551724137931</v>
+        <v>0.07098381070983811</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5934,7 +5934,7 @@
         <v>36</v>
       </c>
       <c r="D19">
-        <v>0.009544008483563097</v>
+        <v>0.01065403965670317</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>12</v>
       </c>
       <c r="D20">
-        <v>0.003181336161187699</v>
+        <v>0.003551346552234389</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5962,7 +5962,7 @@
         <v>14</v>
       </c>
       <c r="D21">
-        <v>0.003711558854718982</v>
+        <v>0.004143237644273453</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5976,7 +5976,7 @@
         <v>9</v>
       </c>
       <c r="D22">
-        <v>0.002386002120890774</v>
+        <v>0.002663509914175792</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5987,10 +5987,10 @@
         <v>443</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <v>0.01696712619300106</v>
+        <v>0.01775673276117195</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6001,10 +6001,10 @@
         <v>444</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>0.003181336161187699</v>
+        <v>0.003255401006214857</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6018,7 +6018,7 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>0.001855779427359491</v>
+        <v>0.002071618822136727</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6032,7 +6032,7 @@
         <v>19</v>
       </c>
       <c r="D26">
-        <v>0.07883817427385892</v>
+        <v>0.08597285067873303</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6043,10 +6043,10 @@
         <v>447</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>0.07739938080495357</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6060,7 +6060,7 @@
         <v>31</v>
       </c>
       <c r="D28">
-        <v>0.02795311091073039</v>
+        <v>0.03096903096903097</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6074,7 +6074,7 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>0.003606853020739405</v>
+        <v>0.003996003996003996</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6085,10 +6085,10 @@
         <v>450</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>0.02795311091073039</v>
+        <v>0.02997002997002997</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6102,7 +6102,7 @@
         <v>17</v>
       </c>
       <c r="D31">
-        <v>0.01532912533814247</v>
+        <v>0.01698301698301698</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6113,10 +6113,10 @@
         <v>452</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>0.02434625788999098</v>
+        <v>0.02597402597402598</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6127,10 +6127,10 @@
         <v>453</v>
       </c>
       <c r="C33">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>0.1609195402298851</v>
+        <v>0.1751152073732719</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6141,10 +6141,10 @@
         <v>454</v>
       </c>
       <c r="C34">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D34">
-        <v>0.3333333333333333</v>
+        <v>0.3410138248847926</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6158,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="D35">
-        <v>0.02380952380952381</v>
+        <v>0.02671118530884808</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6169,10 +6169,10 @@
         <v>456</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>0.02083333333333333</v>
+        <v>0.02170283806343907</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6186,7 +6186,7 @@
         <v>7</v>
       </c>
       <c r="D37">
-        <v>0.003283302063789869</v>
+        <v>0.003602676273803397</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6197,10 +6197,10 @@
         <v>458</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>0.01735459662288931</v>
+        <v>0.01852804940813176</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>12</v>
       </c>
       <c r="D39">
-        <v>0.005628517823639775</v>
+        <v>0.006176016469377252</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6225,10 +6225,10 @@
         <v>460</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>0.01735459662288931</v>
+        <v>0.0159547092125579</v>
       </c>
     </row>
   </sheetData>
@@ -6298,7 +6298,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.7218543046357615</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -6330,7 +6330,7 @@
         <v>410</v>
       </c>
       <c r="B2">
-        <v>0.07767857142857143</v>
+        <v>0.08425275827482448</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6338,7 +6338,7 @@
         <v>411</v>
       </c>
       <c r="B3">
-        <v>0.3671875</v>
+        <v>0.3871951219512195</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6346,7 +6346,7 @@
         <v>412</v>
       </c>
       <c r="B4">
-        <v>0.01444043321299639</v>
+        <v>0.01470588235294118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6354,7 +6354,7 @@
         <v>413</v>
       </c>
       <c r="B5">
-        <v>0.1640826873385013</v>
+        <v>0.1680790960451977</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6362,7 +6362,7 @@
         <v>414</v>
       </c>
       <c r="B6">
-        <v>0.2780172413793104</v>
+        <v>0.3075965130759651</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6370,7 +6370,7 @@
         <v>415</v>
       </c>
       <c r="B7">
-        <v>0.04082714740190881</v>
+        <v>0.04409588635691033</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6378,7 +6378,7 @@
         <v>416</v>
       </c>
       <c r="B8">
-        <v>0.07883817427385892</v>
+        <v>0.08597285067873303</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6386,7 +6386,7 @@
         <v>417</v>
       </c>
       <c r="B9">
-        <v>0.07739938080495357</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6394,7 +6394,7 @@
         <v>418</v>
       </c>
       <c r="B10">
-        <v>0.09918845807033363</v>
+        <v>0.1078921078921079</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6402,7 +6402,7 @@
         <v>419</v>
       </c>
       <c r="B11">
-        <v>0.4942528735632183</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6410,7 +6410,7 @@
         <v>420</v>
       </c>
       <c r="B12">
-        <v>0.04464285714285714</v>
+        <v>0.04841402337228715</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6418,7 +6418,7 @@
         <v>421</v>
       </c>
       <c r="B13">
-        <v>0.04362101313320825</v>
+        <v>0.0442614513638703</v>
       </c>
     </row>
   </sheetData>
@@ -6470,10 +6470,10 @@
         <v>464</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>0.06183368869936034</v>
+        <v>0.06481481481481481</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6487,7 +6487,7 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>0.03411513859275053</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6501,7 +6501,7 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>0.03624733475479744</v>
+        <v>0.03935185185185185</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6515,7 +6515,7 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>0.03411513859275053</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6529,7 +6529,7 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>0.03624733475479744</v>
+        <v>0.03935185185185185</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6543,7 +6543,7 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>0.04051172707889126</v>
+        <v>0.04398148148148148</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6557,7 +6557,7 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>0.03411513859275053</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6571,7 +6571,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0.01492537313432836</v>
+        <v>0.0162037037037037</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6585,7 +6585,7 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>0.03411513859275053</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6599,7 +6599,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.01279317697228145</v>
+        <v>0.01388888888888889</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6613,7 +6613,7 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>0.03411513859275053</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6627,7 +6627,7 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>0.02099737532808399</v>
+        <v>0.02373887240356083</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6641,7 +6641,7 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>0.02362204724409449</v>
+        <v>0.02670623145400593</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6652,10 +6652,10 @@
         <v>475</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>0.06824146981627296</v>
+        <v>0.06824925816023739</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6666,10 +6666,10 @@
         <v>476</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>0.04199475065616798</v>
+        <v>0.04451038575667656</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6680,10 +6680,10 @@
         <v>477</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>0.03674540682414698</v>
+        <v>0.03857566765578635</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6697,7 +6697,7 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <v>0.05420054200542006</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
   </sheetData>
@@ -6745,7 +6745,7 @@
         <v>461</v>
       </c>
       <c r="B2">
-        <v>0.3731343283582089</v>
+        <v>0.4027777777777778</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6753,7 +6753,7 @@
         <v>462</v>
       </c>
       <c r="B3">
-        <v>0.1916010498687664</v>
+        <v>0.2017804154302671</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6761,7 +6761,7 @@
         <v>463</v>
       </c>
       <c r="B4">
-        <v>0.05420054200542006</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
   </sheetData>
@@ -6819,22 +6819,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.7218543046357615</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E2">
-        <v>0.7218543046357615</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F2">
-        <v>0.7218543046357615</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G2">
-        <v>0.7218543046357615</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H2">
-        <v>0.7218543046357615</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I2">
-        <v>0.7218543046357615</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6845,25 +6845,25 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2933898613824609</v>
+        <v>0.3160770605550883</v>
       </c>
       <c r="D3">
-        <v>0.3446444396696848</v>
+        <v>0.3689748899369606</v>
       </c>
       <c r="E3">
-        <v>0.04968944099378882</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="F3">
-        <v>0.1715396511881249</v>
+        <v>0.1856247371740959</v>
       </c>
       <c r="G3">
-        <v>0.2933898613824609</v>
+        <v>0.3160770605550883</v>
       </c>
       <c r="H3">
-        <v>0.4152400715767969</v>
+        <v>0.4465293839360808</v>
       </c>
       <c r="I3">
-        <v>0.5370902817711329</v>
+        <v>0.5769817073170732</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6874,25 +6874,25 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.244567830996796</v>
+        <v>0.25701589348061</v>
       </c>
       <c r="D4">
-        <v>0.1066556509289628</v>
+        <v>0.1137743169091851</v>
       </c>
       <c r="E4">
-        <v>0.1057993730407523</v>
+        <v>0.1066079295154185</v>
       </c>
       <c r="F4">
-        <v>0.1541666666666666</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="G4">
-        <v>0.303954802259887</v>
+        <v>0.3218085106382979</v>
       </c>
       <c r="H4">
-        <v>0.3213114754098361</v>
+        <v>0.3294117647058823</v>
       </c>
       <c r="I4">
-        <v>0.3376068376068376</v>
+        <v>0.3626943005181347</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6903,25 +6903,25 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.4361145953573821</v>
+        <v>0.4542671172045168</v>
       </c>
       <c r="D5">
-        <v>0.2504475106261912</v>
+        <v>0.2541914800585924</v>
       </c>
       <c r="E5">
-        <v>0.2414578587699316</v>
+        <v>0.2602040816326531</v>
       </c>
       <c r="F5">
-        <v>0.2423529411764706</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="G5">
-        <v>0.4208144796380091</v>
+        <v>0.4213483146067416</v>
       </c>
       <c r="H5">
-        <v>0.4214876033057851</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I5">
-        <v>0.8544600938967136</v>
+        <v>0.8864864864864865</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6932,25 +6932,25 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.2700020088117758</v>
+        <v>0.2945395567430455</v>
       </c>
       <c r="D6">
-        <v>0.2087237294084524</v>
+        <v>0.2308398743224376</v>
       </c>
       <c r="E6">
-        <v>0.03184713375796178</v>
+        <v>0.02768166089965398</v>
       </c>
       <c r="F6">
-        <v>0.08422124470511567</v>
+        <v>0.08799004152986453</v>
       </c>
       <c r="G6">
-        <v>0.2025773970544034</v>
+        <v>0.2160831227762595</v>
       </c>
       <c r="H6">
-        <v>0.4817073170731707</v>
+        <v>0.4953703703703703</v>
       </c>
       <c r="I6">
-        <v>0.5946291560102301</v>
+        <v>0.6593406593406594</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6961,25 +6961,25 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.2540273128538985</v>
+        <v>0.2658067687812813</v>
       </c>
       <c r="D7">
-        <v>0.112748128390596</v>
+        <v>0.120514020506829</v>
       </c>
       <c r="E7">
-        <v>0.1152073732718894</v>
+        <v>0.1189873417721519</v>
       </c>
       <c r="F7">
-        <v>0.1516264038991312</v>
+        <v>0.1666335847558555</v>
       </c>
       <c r="G7">
-        <v>0.2392986121859361</v>
+        <v>0.2556507955700483</v>
       </c>
       <c r="H7">
-        <v>0.3447554668360403</v>
+        <v>0.3536954915003696</v>
       </c>
       <c r="I7">
-        <v>0.4423076923076923</v>
+        <v>0.4887459807073956</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6990,25 +6990,25 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.2453996427955617</v>
+        <v>0.257055425829423</v>
       </c>
       <c r="D8">
-        <v>0.1433079186222472</v>
+        <v>0.1508457309904184</v>
       </c>
       <c r="E8">
-        <v>0.06686046511627906</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="F8">
-        <v>0.1386748093586818</v>
+        <v>0.1450288122473553</v>
       </c>
       <c r="G8">
-        <v>0.2420806113644768</v>
+        <v>0.2560814687320712</v>
       </c>
       <c r="H8">
-        <v>0.2847195696460402</v>
+        <v>0.2966502836785856</v>
       </c>
       <c r="I8">
-        <v>0.5211864406779662</v>
+        <v>0.5612745098039216</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -7019,25 +7019,25 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.2152243743364288</v>
+        <v>0.2415565018940212</v>
       </c>
       <c r="D9">
-        <v>0.1061466767158497</v>
+        <v>0.1136672289910308</v>
       </c>
       <c r="E9">
-        <v>0.02797202797202797</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="F9">
-        <v>0.1906158357771261</v>
+        <v>0.2153928447031895</v>
       </c>
       <c r="G9">
-        <v>0.201505016722408</v>
+        <v>0.2391774891774892</v>
       </c>
       <c r="H9">
-        <v>0.2355082938816812</v>
+        <v>0.2619595901739949</v>
       </c>
       <c r="I9">
-        <v>0.4012738853503185</v>
+        <v>0.4384615384615385</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7048,25 +7048,25 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.3130336303842908</v>
+        <v>0.334746211711838</v>
       </c>
       <c r="D10">
-        <v>0.18379931767363</v>
+        <v>0.1938825959177553</v>
       </c>
       <c r="E10">
-        <v>0.06787878787878787</v>
+        <v>0.07183908045977011</v>
       </c>
       <c r="F10">
-        <v>0.169603612243267</v>
+        <v>0.178523322044335</v>
       </c>
       <c r="G10">
-        <v>0.3075088807332247</v>
+        <v>0.3270694328607173</v>
       </c>
       <c r="H10">
-        <v>0.4386978761978762</v>
+        <v>0.4476415094339622</v>
       </c>
       <c r="I10">
-        <v>0.6847826086956521</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7077,25 +7077,25 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0.1483480281458099</v>
+        <v>0.1571264833787665</v>
       </c>
       <c r="D11">
-        <v>0.1516854462412612</v>
+        <v>0.1599494480888952</v>
       </c>
       <c r="E11">
-        <v>0.01444043321299639</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="F11">
-        <v>0.04438739614044492</v>
+        <v>0.04737588037018294</v>
       </c>
       <c r="G11">
-        <v>0.07825837285121517</v>
+        <v>0.08511280447677876</v>
       </c>
       <c r="H11">
-        <v>0.1925663258487036</v>
+        <v>0.2029584503028896</v>
       </c>
       <c r="I11">
-        <v>0.4942528735632183</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7106,25 +7106,25 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.2063119734107984</v>
+        <v>0.2211272408732698</v>
       </c>
       <c r="D12">
-        <v>0.1599749932737183</v>
+        <v>0.1727913654766892</v>
       </c>
       <c r="E12">
-        <v>0.05420054200542006</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="F12">
-        <v>0.1229007959370932</v>
+        <v>0.1303019724210159</v>
       </c>
       <c r="G12">
-        <v>0.1916010498687664</v>
+        <v>0.2017804154302671</v>
       </c>
       <c r="H12">
-        <v>0.2823676891134876</v>
+        <v>0.3022790966040224</v>
       </c>
       <c r="I12">
-        <v>0.3731343283582089</v>
+        <v>0.4027777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -7165,7 +7165,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>0.008050603795284647</v>
+        <v>0.01067073170731707</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7176,10 +7176,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>0.006900517538815411</v>
+        <v>0.006859756097560976</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7193,7 +7193,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>0.005175388154111558</v>
+        <v>0.006859756097560976</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7204,10 +7204,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>0.01437607820586544</v>
+        <v>0.01753048780487805</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7218,10 +7218,10 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>0.01092581943645773</v>
+        <v>0.01219512195121951</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7232,10 +7232,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>0.01035077630822312</v>
+        <v>0.01219512195121951</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7249,7 +7249,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0.005750431282346176</v>
+        <v>0.007621951219512195</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7260,10 +7260,10 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.0230017251293847</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7274,10 +7274,10 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0.005175388154111558</v>
+        <v>0.003810975609756097</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7288,10 +7288,10 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>0.004600345025876941</v>
+        <v>0.004573170731707317</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7302,10 +7302,10 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D12">
-        <v>0.05462909718228867</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7316,10 +7316,10 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>0.005175388154111558</v>
+        <v>0.004573170731707317</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7330,10 +7330,10 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>0.02357676825761932</v>
+        <v>0.02820121951219512</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7344,10 +7344,10 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0.004600345025876941</v>
+        <v>0.003810975609756097</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7358,10 +7358,10 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D16">
-        <v>0.0488786658999425</v>
+        <v>0.05487804878048781</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7372,10 +7372,10 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>0.004600345025876941</v>
+        <v>0.003810975609756097</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7386,10 +7386,10 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>0.006900517538815411</v>
+        <v>0.006859756097560976</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7400,10 +7400,10 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>0.01207590569292697</v>
+        <v>0.01371951219512195</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7414,10 +7414,10 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>0.005750431282346176</v>
+        <v>0.004573170731707317</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7428,10 +7428,10 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>0.005175388154111558</v>
+        <v>0.003810975609756097</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7442,10 +7442,10 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>0.02645198389879241</v>
+        <v>0.02896341463414634</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7456,10 +7456,10 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>0.02127659574468085</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7470,10 +7470,10 @@
         <v>33</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>0.005175388154111558</v>
+        <v>0.004573170731707317</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7484,10 +7484,10 @@
         <v>34</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>0.01725129384703853</v>
+        <v>0.01676829268292683</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7498,10 +7498,10 @@
         <v>35</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>0.004600345025876941</v>
+        <v>0.003048780487804878</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7512,10 +7512,10 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>0.004025301897642324</v>
+        <v>0.003810975609756097</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7526,10 +7526,10 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>0.02242668200115009</v>
+        <v>0.02515243902439025</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7540,10 +7540,10 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>0.006325474410580794</v>
+        <v>0.004573170731707317</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7554,10 +7554,10 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>0.02242668200115009</v>
+        <v>0.02591463414634146</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7568,10 +7568,10 @@
         <v>38</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>0.006325474410580794</v>
+        <v>0.004573170731707317</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7582,10 +7582,10 @@
         <v>40</v>
       </c>
       <c r="C32">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>0.0293271995399655</v>
+        <v>0.03277439024390244</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7596,10 +7596,10 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>0.004025301897642324</v>
+        <v>0.003048780487804878</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7610,10 +7610,10 @@
         <v>42</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>0.01552616446233467</v>
+        <v>0.01448170731707317</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7624,10 +7624,10 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>0.005750431282346176</v>
+        <v>0.005335365853658537</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7638,10 +7638,10 @@
         <v>44</v>
       </c>
       <c r="C36">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D36">
-        <v>0.0523289246693502</v>
+        <v>0.0586890243902439</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7652,10 +7652,10 @@
         <v>45</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>0.0230017251293847</v>
+        <v>0.02362804878048781</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7666,10 +7666,10 @@
         <v>46</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>0.005175388154111558</v>
+        <v>0.003810975609756097</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7683,7 +7683,7 @@
         <v>16</v>
       </c>
       <c r="D39">
-        <v>0.04968944099378882</v>
+        <v>0.05517241379310345</v>
       </c>
     </row>
   </sheetData>
@@ -7752,7 +7752,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5370902817711329</v>
+        <v>0.5769817073170732</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7760,7 +7760,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.04968944099378882</v>
+        <v>0.05517241379310345</v>
       </c>
     </row>
   </sheetData>
@@ -7802,10 +7802,10 @@
         <v>53</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>0.1049180327868852</v>
+        <v>0.1137254901960784</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7819,7 +7819,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>0.01967213114754099</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7833,7 +7833,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>0.04262295081967213</v>
+        <v>0.05098039215686274</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7844,10 +7844,10 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>0.1540983606557377</v>
+        <v>0.1411764705882353</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7858,10 +7858,10 @@
         <v>57</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>0.03541666666666667</v>
+        <v>0.0379746835443038</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7872,10 +7872,10 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>0.04375</v>
+        <v>0.04050632911392405</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7889,7 +7889,7 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>0.03333333333333333</v>
+        <v>0.04050632911392405</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7903,7 +7903,7 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>0.025</v>
+        <v>0.03037974683544304</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7914,10 +7914,10 @@
         <v>61</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0.01666666666666667</v>
+        <v>0.01518987341772152</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7928,10 +7928,10 @@
         <v>62</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>0.01489028213166144</v>
+        <v>0.01497797356828194</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7942,10 +7942,10 @@
         <v>63</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>0.01959247648902821</v>
+        <v>0.02026431718061674</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7956,10 +7956,10 @@
         <v>64</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13">
-        <v>0.0384012539184953</v>
+        <v>0.03876651982378854</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7970,10 +7970,10 @@
         <v>65</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>0.0329153605015674</v>
+        <v>0.03259911894273128</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7987,7 +7987,7 @@
         <v>9</v>
       </c>
       <c r="D15">
-        <v>0.03846153846153846</v>
+        <v>0.04663212435233161</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7998,10 +7998,10 @@
         <v>67</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>0.1452991452991453</v>
+        <v>0.1606217616580311</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8012,10 +8012,10 @@
         <v>68</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>0.1538461538461539</v>
+        <v>0.155440414507772</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8026,10 +8026,10 @@
         <v>69</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>0.02372881355932203</v>
+        <v>0.02393617021276596</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8040,10 +8040,10 @@
         <v>70</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>0.04180790960451977</v>
+        <v>0.04388297872340426</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8054,10 +8054,10 @@
         <v>71</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>0.04971751412429379</v>
+        <v>0.05585106382978723</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8068,10 +8068,10 @@
         <v>72</v>
       </c>
       <c r="C21">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D21">
-        <v>0.0576271186440678</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8082,10 +8082,10 @@
         <v>73</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>0.03050847457627119</v>
+        <v>0.03324468085106383</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8096,10 +8096,10 @@
         <v>74</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>0.02033898305084746</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8110,10 +8110,10 @@
         <v>75</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>0.01129943502824859</v>
+        <v>0.01196808510638298</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8127,7 +8127,7 @@
         <v>13</v>
       </c>
       <c r="D25">
-        <v>0.01468926553672316</v>
+        <v>0.01728723404255319</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8138,10 +8138,10 @@
         <v>77</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>0.02372881355932203</v>
+        <v>0.02260638297872341</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8152,10 +8152,10 @@
         <v>78</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>0.01807909604519774</v>
+        <v>0.01861702127659574</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -8166,10 +8166,10 @@
         <v>79</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>0.01242937853107345</v>
+        <v>0.01063829787234043</v>
       </c>
     </row>
   </sheetData>
@@ -8227,7 +8227,7 @@
         <v>48</v>
       </c>
       <c r="B2">
-        <v>0.3213114754098361</v>
+        <v>0.3294117647058823</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8235,7 +8235,7 @@
         <v>49</v>
       </c>
       <c r="B3">
-        <v>0.1541666666666666</v>
+        <v>0.1645569620253164</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8243,7 +8243,7 @@
         <v>50</v>
       </c>
       <c r="B4">
-        <v>0.1057993730407523</v>
+        <v>0.1066079295154185</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8251,7 +8251,7 @@
         <v>51</v>
       </c>
       <c r="B5">
-        <v>0.3376068376068376</v>
+        <v>0.3626943005181347</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8259,7 +8259,7 @@
         <v>52</v>
       </c>
       <c r="B6">
-        <v>0.303954802259887</v>
+        <v>0.3218085106382979</v>
       </c>
     </row>
   </sheetData>
@@ -8304,10 +8304,10 @@
         <v>85</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>0.4225352112676056</v>
+        <v>0.4378378378378379</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8318,10 +8318,10 @@
         <v>86</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>0.431924882629108</v>
+        <v>0.4486486486486487</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8332,10 +8332,10 @@
         <v>87</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>0.1402714932126697</v>
+        <v>0.1292134831460674</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8346,10 +8346,10 @@
         <v>88</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>0.2805429864253394</v>
+        <v>0.2921348314606741</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8360,10 +8360,10 @@
         <v>89</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>0.0387243735763098</v>
+        <v>0.03826530612244898</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8377,7 +8377,7 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>0.0296127562642369</v>
+        <v>0.03316326530612245</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8391,7 +8391,7 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>0.04328018223234624</v>
+        <v>0.04846938775510204</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8402,10 +8402,10 @@
         <v>92</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.0683371298405467</v>
+        <v>0.07397959183673469</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8416,10 +8416,10 @@
         <v>93</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>0.06150341685649203</v>
+        <v>0.0663265306122449</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8433,7 +8433,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>0.03058823529411765</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8444,10 +8444,10 @@
         <v>95</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>0.0988235294117647</v>
+        <v>0.1126373626373626</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8458,10 +8458,10 @@
         <v>96</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>0.01411764705882353</v>
+        <v>0.01373626373626374</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8475,7 +8475,7 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>0.05411764705882353</v>
+        <v>0.06318681318681318</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8486,10 +8486,10 @@
         <v>98</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>0.04470588235294118</v>
+        <v>0.04945054945054945</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8500,10 +8500,10 @@
         <v>99</v>
       </c>
       <c r="C16">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>0.4214876033057851</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
   </sheetData>
@@ -8549,7 +8549,7 @@
         <v>80</v>
       </c>
       <c r="B2">
-        <v>0.8544600938967136</v>
+        <v>0.8864864864864865</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8557,7 +8557,7 @@
         <v>81</v>
       </c>
       <c r="B3">
-        <v>0.4208144796380091</v>
+        <v>0.4213483146067416</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8565,7 +8565,7 @@
         <v>82</v>
       </c>
       <c r="B4">
-        <v>0.2414578587699316</v>
+        <v>0.2602040816326531</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8573,7 +8573,7 @@
         <v>83</v>
       </c>
       <c r="B5">
-        <v>0.2423529411764706</v>
+        <v>0.2747252747252747</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8581,7 +8581,7 @@
         <v>84</v>
       </c>
       <c r="B6">
-        <v>0.4214876033057851</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
   </sheetData>
@@ -8629,7 +8629,7 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>0.04918032786885246</v>
+        <v>0.05487804878048781</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8640,10 +8640,10 @@
         <v>115</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>0.02459016393442623</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8654,10 +8654,10 @@
         <v>116</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>0.06284153005464481</v>
+        <v>0.06707317073170732</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8671,7 +8671,7 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.02185792349726776</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8685,7 +8685,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>0.04347826086956522</v>
+        <v>0.04724409448818898</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8699,7 +8699,7 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>0.04395604395604396</v>
+        <v>0.05423728813559322</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8710,10 +8710,10 @@
         <v>120</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.08516483516483517</v>
+        <v>0.1016949152542373</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8724,10 +8724,10 @@
         <v>121</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>0.0576923076923077</v>
+        <v>0.06779661016949153</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8741,7 +8741,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.03021978021978022</v>
+        <v>0.03728813559322034</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8752,10 +8752,10 @@
         <v>123</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>0.0467032967032967</v>
+        <v>0.04406779661016949</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8766,10 +8766,10 @@
         <v>124</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>0.08241758241758242</v>
+        <v>0.09152542372881356</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8780,10 +8780,10 @@
         <v>125</v>
       </c>
       <c r="C13">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>0.1758241758241758</v>
+        <v>0.1932203389830509</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8794,10 +8794,10 @@
         <v>126</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>0.03184713375796178</v>
+        <v>0.02768166089965398</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8808,10 +8808,10 @@
         <v>127</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>0.06905370843989769</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8822,10 +8822,10 @@
         <v>128</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>0.03580562659846547</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8836,10 +8836,10 @@
         <v>129</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>0.02813299232736573</v>
+        <v>0.03139717425431711</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8853,7 +8853,7 @@
         <v>15</v>
       </c>
       <c r="D18">
-        <v>0.01918158567774936</v>
+        <v>0.02354788069073784</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8867,7 +8867,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>0.02301790281329923</v>
+        <v>0.0282574568288854</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8881,7 +8881,7 @@
         <v>16</v>
       </c>
       <c r="D20">
-        <v>0.02046035805626599</v>
+        <v>0.02511773940345369</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8892,10 +8892,10 @@
         <v>133</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>0.05115089514066496</v>
+        <v>0.05808477237048666</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8909,7 +8909,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>0.01023017902813299</v>
+        <v>0.01255886970172685</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8920,10 +8920,10 @@
         <v>135</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>0.03069053708439898</v>
+        <v>0.03453689167974882</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8934,10 +8934,10 @@
         <v>136</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>0.02429667519181586</v>
+        <v>0.0282574568288854</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8948,10 +8948,10 @@
         <v>137</v>
       </c>
       <c r="C25">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D25">
-        <v>0.07416879795396419</v>
+        <v>0.07535321821036106</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8962,10 +8962,10 @@
         <v>138</v>
       </c>
       <c r="C26">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D26">
-        <v>0.1342710997442455</v>
+        <v>0.1444270015698587</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8976,10 +8976,10 @@
         <v>139</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>0.01790281329923274</v>
+        <v>0.01726844583987441</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -8990,10 +8990,10 @@
         <v>140</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>0.04731457800511509</v>
+        <v>0.05180533751962323</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -9004,10 +9004,10 @@
         <v>141</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>0.008951406649616368</v>
+        <v>0.006279434850863423</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -9018,10 +9018,10 @@
         <v>142</v>
       </c>
       <c r="C30">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>0.04147880973850315</v>
+        <v>0.04988913525498891</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -9035,7 +9035,7 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>0.009017132551848512</v>
+        <v>0.01108647450110865</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -9049,7 +9049,7 @@
         <v>18</v>
       </c>
       <c r="D32">
-        <v>0.01623083859332732</v>
+        <v>0.01995565410199556</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9060,10 +9060,10 @@
         <v>145</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>0.02614968440036069</v>
+        <v>0.02771618625277162</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9074,10 +9074,10 @@
         <v>146</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>0.02344454463480613</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -9088,10 +9088,10 @@
         <v>147</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>0.02975653742110009</v>
+        <v>0.03104212860310421</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -9102,10 +9102,10 @@
         <v>148</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>0.04508566275924256</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -9116,10 +9116,10 @@
         <v>149</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>0.03065825067628494</v>
+        <v>0.03325942350332594</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -9133,7 +9133,7 @@
         <v>22</v>
       </c>
       <c r="D38">
-        <v>0.04444444444444445</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -9144,10 +9144,10 @@
         <v>151</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>0.0505050505050505</v>
+        <v>0.05896805896805897</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -9158,10 +9158,10 @@
         <v>152</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D40">
-        <v>0.06209573091849935</v>
+        <v>0.0650887573964497</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -9172,10 +9172,10 @@
         <v>153</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>0.07368421052631578</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -9186,10 +9186,10 @@
         <v>154</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>0.1842105263157895</v>
+        <v>0.1882352941176471</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -9200,10 +9200,10 @@
         <v>155</v>
       </c>
       <c r="C43">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D43">
-        <v>0.2421052631578947</v>
+        <v>0.2411764705882353</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -9217,7 +9217,7 @@
         <v>23</v>
       </c>
       <c r="D44">
-        <v>0.03645007923930269</v>
+        <v>0.04431599229287091</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -9231,7 +9231,7 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>0.009508716323296355</v>
+        <v>0.0115606936416185</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -9242,10 +9242,10 @@
         <v>158</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>0.03803486529318542</v>
+        <v>0.03468208092485549</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -9259,7 +9259,7 @@
         <v>22</v>
       </c>
       <c r="D47">
-        <v>0.03486529318541997</v>
+        <v>0.04238921001926782</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -9273,7 +9273,7 @@
         <v>27</v>
       </c>
       <c r="D48">
-        <v>0.0427892234548336</v>
+        <v>0.05202312138728324</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -9284,10 +9284,10 @@
         <v>161</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>0.04595879556259905</v>
+        <v>0.05394990366088632</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -9298,10 +9298,10 @@
         <v>162</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>0.01901743264659271</v>
+        <v>0.01926782273603083</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -9315,7 +9315,7 @@
         <v>25</v>
       </c>
       <c r="D51">
-        <v>0.03961965134706814</v>
+        <v>0.04816955684007707</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -9329,7 +9329,7 @@
         <v>25</v>
       </c>
       <c r="D52">
-        <v>0.03961965134706814</v>
+        <v>0.04816955684007707</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -9340,10 +9340,10 @@
         <v>165</v>
       </c>
       <c r="C53">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D53">
-        <v>0.09508716323296355</v>
+        <v>0.1021194605009634</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -9354,10 +9354,10 @@
         <v>166</v>
       </c>
       <c r="C54">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>0.03011093502377179</v>
+        <v>0.02890173410404624</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -9368,10 +9368,10 @@
         <v>167</v>
       </c>
       <c r="C55">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D55">
-        <v>0.06656101426307448</v>
+        <v>0.07129094412331406</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -9382,10 +9382,10 @@
         <v>168</v>
       </c>
       <c r="C56">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D56">
-        <v>0.05229793977812995</v>
+        <v>0.05202312138728324</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -9399,7 +9399,7 @@
         <v>23</v>
       </c>
       <c r="D57">
-        <v>0.03495440729483282</v>
+        <v>0.04174228675136116</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -9413,7 +9413,7 @@
         <v>12</v>
       </c>
       <c r="D58">
-        <v>0.0182370820668693</v>
+        <v>0.02177858439201452</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -9427,7 +9427,7 @@
         <v>30</v>
       </c>
       <c r="D59">
-        <v>0.04559270516717325</v>
+        <v>0.0544464609800363</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -9441,7 +9441,7 @@
         <v>22</v>
       </c>
       <c r="D60">
-        <v>0.03343465045592705</v>
+        <v>0.03992740471869329</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -9455,7 +9455,7 @@
         <v>16</v>
       </c>
       <c r="D61">
-        <v>0.0243161094224924</v>
+        <v>0.02903811252268602</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -9469,7 +9469,7 @@
         <v>13</v>
       </c>
       <c r="D62">
-        <v>0.01975683890577508</v>
+        <v>0.0235934664246824</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -9480,10 +9480,10 @@
         <v>175</v>
       </c>
       <c r="C63">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D63">
-        <v>0.0911854103343465</v>
+        <v>0.0925589836660617</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -9494,10 +9494,10 @@
         <v>176</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D64">
-        <v>0.0425531914893617</v>
+        <v>0.04537205081669692</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -9508,10 +9508,10 @@
         <v>177</v>
       </c>
       <c r="C65">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65">
-        <v>0.201219512195122</v>
+        <v>0.237037037037037</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -9522,10 +9522,10 @@
         <v>178</v>
       </c>
       <c r="C66">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D66">
-        <v>0.225609756097561</v>
+        <v>0.2444444444444444</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -9536,10 +9536,10 @@
         <v>179</v>
       </c>
       <c r="C67">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D67">
-        <v>0.1833333333333333</v>
+        <v>0.186046511627907</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -9550,10 +9550,10 @@
         <v>180</v>
       </c>
       <c r="C68">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D68">
-        <v>0.08064516129032258</v>
+        <v>0.07964601769911504</v>
       </c>
     </row>
   </sheetData>

--- a/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_quotes.xlsx
+++ b/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_quotes.xlsx
@@ -23,20 +23,23 @@
     <sheet name="2013_proportion" sheetId="14" r:id="rId14"/>
     <sheet name="2014" sheetId="15" r:id="rId15"/>
     <sheet name="2014_proportion" sheetId="16" r:id="rId16"/>
-    <sheet name="2016" sheetId="17" r:id="rId17"/>
-    <sheet name="2016_proportion" sheetId="18" r:id="rId18"/>
-    <sheet name="2017" sheetId="19" r:id="rId19"/>
-    <sheet name="2017_proportion" sheetId="20" r:id="rId20"/>
-    <sheet name="2018" sheetId="21" r:id="rId21"/>
-    <sheet name="2018_proportion" sheetId="22" r:id="rId22"/>
-    <sheet name="Proportion Summary" sheetId="23" r:id="rId23"/>
+    <sheet name="2015" sheetId="17" r:id="rId17"/>
+    <sheet name="2015_proportion" sheetId="18" r:id="rId18"/>
+    <sheet name="2016" sheetId="19" r:id="rId19"/>
+    <sheet name="2016_proportion" sheetId="20" r:id="rId20"/>
+    <sheet name="2017" sheetId="21" r:id="rId21"/>
+    <sheet name="2017_proportion" sheetId="22" r:id="rId22"/>
+    <sheet name="2018" sheetId="23" r:id="rId23"/>
+    <sheet name="2018_proportion" sheetId="24" r:id="rId24"/>
+    <sheet name="Proportion Summary" sheetId="25" r:id="rId25"/>
+    <sheet name="Num Quotes Proportions" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="522">
   <si>
     <t>factcheckURL</t>
   </si>
@@ -1135,6 +1138,117 @@
     <t>" on May 8, 2007, "</t>
   </si>
   <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/28/constitutional-rights-pac/paul-ryan-one-few-gop-vote-force-christian-employe/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/13/lynn-westmoreland/Westmoreland-ran-doesnt-have-to-prove-nuclear-plan/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/may/03/robert-hurt/hurt-amiss-linking-estate-tax-small-farm-businesse/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/apr/13/dave-brat/brat-says-obamacare-repeal-would-save-nation-2-tri/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/mar/10/state-democratic-party-wisconsin/democratic-party-says-scott-walker-proposed-sellin/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jan/18/bobby-scott/bobby-scott-low-gas-prices-are-result-obama-polici/</t>
+  </si>
+  <si>
+    <t>Washington, DC – The coalition of conservatives and conservative organizations that recently forced Rep. Kevin McCarthy to forsake his pursuit of the the top post in the United States House today launched a campaign opposing Rep. Paul Ryan.
+ .
+ "Paul Ryan is undeserving of the Speakership</t>
+  </si>
+  <si>
+    <t>"Just like John Boehner and his deputy Kevin McCarthy, Paul Ryan scores terribly with conservatives</t>
+  </si>
+  <si>
+    <t>"I like Paul Ryan personally, but</t>
+  </si>
+  <si>
+    <t>I believe that if he were to be elected Speaker we will see a continuation of Boehner policies</t>
+  </si>
+  <si>
+    <t>After personally taking the pledge to Fire Paul Ryan, conservative candidate for Congress Kay Daly is now challenging her opponent, Rep. Renee Ellmers (RINO-NC2), to join the coalition and oppose Ryan as Speaker.
+ .
+ "Paul Ryan would be the most liberal, pro-union, Republican Speaker in history</t>
+  </si>
+  <si>
+    <t>Rep. Boehner’s resignation "creates major opportunity to select an individual committed to restoring the American Republic"</t>
+  </si>
+  <si>
+    <t>The veteran community has not forgotten the Ryan-Murray budget which targeted massive cuts to military retirement</t>
+  </si>
+  <si>
+    <t>"We forced Boehner to step down, Cantor was defeated, and McCarthy withdrew – yet the Establishment continues to serve up RINO after RINO after RINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"We must elect a Speaker that will stand-up to Obama and his radical policies that are hurting all Americans, especially the poor and senior citizens on limited incomes.We have to have leadership that is strong and truly conservative.".
+ .
+ </t>
+  </si>
+  <si>
+    <t>"We fought Rep. McCarthy's race to lead the House because of his compromises, and we aren't going to turn a blind eye toward's Ryan, despite the fact that he presents himself as a conservative."</t>
+  </si>
+  <si>
+    <t>"needs a speaker of the house that will support a strategy based on conservative principles and winning ideas – not a speaker that will support party principles and losing ideas."</t>
+  </si>
+  <si>
+    <t>"He is one of only six House Republicans who voted for Teddy Kennedy’s bill to force Christian employers to hire LGBT employees. Even John Boehner never did that!"</t>
+  </si>
+  <si>
+    <t>"If Ryan is chosen, we’ll see that he’s fired."</t>
+  </si>
+  <si>
+    <t>"I came to Congress to make our country and our world a safer and better place for my children and grandchildren, and this deal does not do either. Not only do I reject this agreement, but I reject the President’s secretive manipulation and the negotiations with Iran entirely."</t>
+  </si>
+  <si>
+    <t>"We must continue to free our Main Street businesses and family farms from government-created obstacles to economic growth, and I remain committed to advancing policies that will spur job creation and economic recovery. I was proud to cosponsor this commonsense legislation and see it pass the House with bipartisan support. I urge our colleagues in the Senate to continue working with us to promote success for our small businesses and family farms so that they can create jobs and generate opportunity and prosperity for our communities."</t>
+  </si>
+  <si>
+    <t>these programs are financially sustainable</t>
+  </si>
+  <si>
+    <t>the total cost of regulations is as high as $2.03 trillion per year, and compliance costs fall ‘disproportionately on small businesses</t>
+  </si>
+  <si>
+    <t>"House Republicans have released a budget that will take aim at fixing some of the greatest threats currently facing our nation.
+ .
+ "</t>
+  </si>
+  <si>
+    <t>"This budget will ensure better care for our veterans by working to enhance oversight over the Department of Veterans Affairs and its bureaucratic mismanagement. We will continue working to ensure that we provide sufficient resources to our veterans to more effectively provide benefits to those who have fought to defend our country and our way of life."</t>
+  </si>
+  <si>
+    <t>"This budget builds upon the work of the House Education and the Workforce Committee to consolidate federal job-training programs, which will produce better results for the millions of Americans looking to improve their skills in their search for jobs.
+ .
+ "</t>
+  </si>
+  <si>
+    <t>"This budget also seeks to eliminate several corporate welfare programs, reaffirming our commitment to stopping cronyism. This budget makes clear that Washington should not be in the business of picking the winners and losers of our economy in the private sector. The best way to ensure a vibrant and strong economy is to allow innovators to thrive based on merit and the actual consumer demand for their products and services -- not based on the powerful friends they have in Washington."</t>
+  </si>
+  <si>
+    <t>"Today, six years into our very weak recovery, wages are stagnant, median income is down, debt has mounted on the backs of children not yet born, and economic growth is sputtering. Hard-working American families are struggling as average hourly wages are barely keeping pace with inflation, real median household income is just under $52,000 – one of the lowest levels since the mid-1990s – and an unhealthy percentage of the American workforce has dropped out of the labor market.
+ .
+ "</t>
+  </si>
+  <si>
+    <t>that the state was looking at several other options to generate revenue, like selling naming rights to our natural resources to offset Walker's cuts</t>
+  </si>
+  <si>
+    <t>it was no longer going to continue with the project</t>
+  </si>
+  <si>
+    <t>As someone who simply 'visits' Wisconsin as he campaigns for president, Scott Walker might not remember that our state parks are vital to Wisconsin's conservation heritage</t>
+  </si>
+  <si>
+    <t>"Are we going to see Donald Trump Trail or Koch Springs?McRib Mountain?This is absurd.The people who do live here in Wisconsin, and love our state, deserve better than Walker's short-sighted giveaways to corporate special interests that threaten our state's richest assets, our natural resources."</t>
+  </si>
+  <si>
+    <t>, the project would only directly create 2,000 temporary jobs and few as 35 permanent jobs.</t>
+  </si>
+  <si>
     <t>http://www.politifact.com/california/statements/2016/aug/05/dianne-feinstein/feinsteins-claim-about-prime-time-marijuana-tv-ads/</t>
   </si>
   <si>
@@ -1531,6 +1645,9 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>proportion_num_quotes_to_num_articles</t>
   </si>
 </sst>
 </file>
@@ -4890,6 +5007,517 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>0.07357859531772576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>0.02508361204013378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0.01003344481605351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>0.03010033444816054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>0.07859531772575251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>0.02842809364548495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>0.02842809364548495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>0.04013377926421405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>0.06688963210702341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>0.06187290969899666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>0.04849498327759198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>0.04849498327759198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0.01839464882943144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>0.1884615384615385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16">
+        <v>87</v>
+      </c>
+      <c r="D16">
+        <v>0.3866666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0.005694760820045558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>0.02505694760820045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>0.02391799544419134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>0.06492027334851937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>0.04555808656036447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>0.09111617312072894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C23">
+        <v>79</v>
+      </c>
+      <c r="D23">
+        <v>0.08997722095671981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" t="s">
+        <v>385</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>0.03828483920367534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0.01531393568147014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B26" t="s">
+        <v>387</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>0.04134762633996937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>0.07656967840735068</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>0.04010695187165775</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2">
+        <v>0.5585284280936456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3">
+        <v>0.1884615384615385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4">
+        <v>0.3866666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5">
+        <v>0.3462414578587699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6">
+        <v>0.1715160796324655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7">
+        <v>0.04010695187165775</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4912,10 +5540,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -4926,10 +5554,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="C3">
         <v>57</v>
@@ -4940,10 +5568,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -4954,10 +5582,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="C5">
         <v>48</v>
@@ -4968,10 +5596,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -4982,10 +5610,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -4996,10 +5624,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -5010,10 +5638,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="C9">
         <v>53</v>
@@ -5024,10 +5652,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -5038,10 +5666,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -5052,10 +5680,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="C12">
         <v>22</v>
@@ -5066,10 +5694,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -5080,10 +5708,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="C14">
         <v>21</v>
@@ -5094,10 +5722,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="C15">
         <v>24</v>
@@ -5108,10 +5736,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -5122,10 +5750,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="C17">
         <v>32</v>
@@ -5136,10 +5764,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="C18">
         <v>35</v>
@@ -5150,10 +5778,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -5164,10 +5792,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B20" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -5178,10 +5806,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B21" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="C21">
         <v>34</v>
@@ -5192,10 +5820,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B22" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -5206,10 +5834,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="C23">
         <v>32</v>
@@ -5220,10 +5848,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B24" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="C24">
         <v>41</v>
@@ -5234,10 +5862,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B25" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="C25">
         <v>33</v>
@@ -5248,10 +5876,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="C26">
         <v>41</v>
@@ -5262,10 +5890,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B27" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="C27">
         <v>24</v>
@@ -5276,10 +5904,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="B28" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -5290,10 +5918,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="B29" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="C29">
         <v>26</v>
@@ -5304,10 +5932,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="B30" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="C30">
         <v>13</v>
@@ -5318,10 +5946,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="B31" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -5332,10 +5960,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="B32" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="C32">
         <v>16</v>
@@ -5346,10 +5974,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="B33" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -5360,10 +5988,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="B34" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="C34">
         <v>52</v>
@@ -5374,10 +6002,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="B35" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="C35">
         <v>11</v>
@@ -5388,10 +6016,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="B36" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="C36">
         <v>36</v>
@@ -5402,10 +6030,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="B37" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="C37">
         <v>25</v>
@@ -5416,10 +6044,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="C38">
         <v>19</v>
@@ -5430,10 +6058,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="B39" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="C39">
         <v>16</v>
@@ -5444,10 +6072,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="C40">
         <v>24</v>
@@ -5458,10 +6086,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="B41" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="C41">
         <v>57</v>
@@ -5472,10 +6100,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -5532,7 +6160,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -5550,7 +6210,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="B2">
         <v>0.3776595744680851</v>
@@ -5558,7 +6218,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="B3">
         <v>0.3238636363636364</v>
@@ -5566,7 +6226,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="B4">
         <v>0.7333333333333334</v>
@@ -5574,7 +6234,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="B5">
         <v>0.09649122807017543</v>
@@ -5582,7 +6242,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="B6">
         <v>0.1328125</v>
@@ -5590,7 +6250,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="B7">
         <v>0.3302752293577982</v>
@@ -5598,7 +6258,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="B8">
         <v>0.07183908045977011</v>
@@ -5606,7 +6266,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B9">
         <v>0.5132924335378324</v>
@@ -5614,7 +6274,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="B10">
         <v>0.19376026272578</v>
@@ -5622,7 +6282,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="B11">
         <v>0.4905660377358491</v>
@@ -5630,7 +6290,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="B12">
         <v>0.3197278911564626</v>
@@ -5638,7 +6298,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="B13">
         <v>0.4333333333333333</v>
@@ -5663,7 +6323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -5687,10 +6347,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="C2">
         <v>26</v>
@@ -5701,10 +6361,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -5715,10 +6375,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="C4">
         <v>42</v>
@@ -5729,10 +6389,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="C5">
         <v>26</v>
@@ -5743,10 +6403,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="C6">
         <v>61</v>
@@ -5757,10 +6417,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="C7">
         <v>40</v>
@@ -5771,10 +6431,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -5785,10 +6445,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="C9">
         <v>63</v>
@@ -5799,10 +6459,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="C10">
         <v>28</v>
@@ -5813,10 +6473,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -5827,10 +6487,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -5841,10 +6501,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="C13">
         <v>54</v>
@@ -5855,10 +6515,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="B14" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="C14">
         <v>31</v>
@@ -5869,10 +6529,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="B15" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -5883,10 +6543,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="B16" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="C16">
         <v>21</v>
@@ -5897,10 +6557,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="B17" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="C17">
         <v>54</v>
@@ -5911,10 +6571,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="B18" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="C18">
         <v>57</v>
@@ -5925,10 +6585,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="B19" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="C19">
         <v>36</v>
@@ -5939,10 +6599,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="B20" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -5953,10 +6613,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="B21" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -5967,10 +6627,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="B22" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -5981,10 +6641,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="B23" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="C23">
         <v>60</v>
@@ -5995,10 +6655,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="B24" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -6009,10 +6669,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="B25" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -6023,10 +6683,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="B26" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="C26">
         <v>19</v>
@@ -6037,10 +6697,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="B27" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="C27">
         <v>22</v>
@@ -6051,10 +6711,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="B28" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="C28">
         <v>31</v>
@@ -6065,10 +6725,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="B29" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -6079,10 +6739,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="B30" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="C30">
         <v>30</v>
@@ -6093,10 +6753,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="B31" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="C31">
         <v>17</v>
@@ -6107,10 +6767,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="B32" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="C32">
         <v>26</v>
@@ -6121,10 +6781,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="B33" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="C33">
         <v>38</v>
@@ -6135,10 +6795,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="B34" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="C34">
         <v>74</v>
@@ -6149,10 +6809,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="B35" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="C35">
         <v>16</v>
@@ -6163,10 +6823,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="B36" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="C36">
         <v>13</v>
@@ -6177,10 +6837,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="B37" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -6191,10 +6851,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="B38" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="C38">
         <v>36</v>
@@ -6205,10 +6865,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="B39" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -6219,10 +6879,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="B40" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="C40">
         <v>31</v>
@@ -6277,39 +6937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -6327,7 +6955,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="B2">
         <v>0.08425275827482448</v>
@@ -6335,7 +6963,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="B3">
         <v>0.3871951219512195</v>
@@ -6343,7 +6971,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="B4">
         <v>0.01470588235294118</v>
@@ -6351,7 +6979,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="B5">
         <v>0.1680790960451977</v>
@@ -6359,7 +6987,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="B6">
         <v>0.3075965130759651</v>
@@ -6367,7 +6995,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="B7">
         <v>0.04409588635691033</v>
@@ -6375,7 +7003,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="B8">
         <v>0.08597285067873303</v>
@@ -6383,7 +7011,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="B9">
         <v>0.07692307692307693</v>
@@ -6391,7 +7019,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="B10">
         <v>0.1078921078921079</v>
@@ -6399,7 +7027,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="B11">
         <v>0.5161290322580645</v>
@@ -6407,7 +7035,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="B12">
         <v>0.04841402337228715</v>
@@ -6415,7 +7043,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="B13">
         <v>0.0442614513638703</v>
@@ -6440,7 +7068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -6464,10 +7092,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="C2">
         <v>28</v>
@@ -6478,10 +7106,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -6492,10 +7120,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -6506,10 +7134,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -6520,10 +7148,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -6534,10 +7162,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -6548,10 +7176,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -6562,10 +7190,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -6576,10 +7204,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -6590,10 +7218,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -6604,10 +7232,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="C12">
         <v>16</v>
@@ -6618,10 +7246,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -6632,10 +7260,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="B14" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -6646,10 +7274,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="B15" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="C15">
         <v>23</v>
@@ -6660,10 +7288,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -6674,10 +7302,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="B17" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -6688,10 +7316,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -6724,7 +7352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -6742,7 +7370,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B2">
         <v>0.4027777777777778</v>
@@ -6750,7 +7378,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="B3">
         <v>0.2017804154302671</v>
@@ -6758,7 +7386,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="B4">
         <v>0.05882352941176471</v>
@@ -6774,9 +7402,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6784,31 +7412,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7042,89 +7670,235 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0.334746211711838</v>
+        <v>0.2819201870974573</v>
       </c>
       <c r="D10">
-        <v>0.1938825959177553</v>
+        <v>0.1849423675212685</v>
       </c>
       <c r="E10">
-        <v>0.07183908045977011</v>
+        <v>0.04010695187165775</v>
       </c>
       <c r="F10">
-        <v>0.178523322044335</v>
+        <v>0.1757524443397338</v>
       </c>
       <c r="G10">
-        <v>0.3270694328607173</v>
+        <v>0.2673514981601542</v>
       </c>
       <c r="H10">
-        <v>0.4476415094339622</v>
+        <v>0.3765603644646925</v>
       </c>
       <c r="I10">
-        <v>0.7333333333333334</v>
+        <v>0.5585284280936456</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B11">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0.1571264833787665</v>
+        <v>0.334746211711838</v>
       </c>
       <c r="D11">
-        <v>0.1599494480888952</v>
+        <v>0.1938825959177553</v>
       </c>
       <c r="E11">
-        <v>0.01470588235294118</v>
+        <v>0.07183908045977011</v>
       </c>
       <c r="F11">
-        <v>0.04737588037018294</v>
+        <v>0.178523322044335</v>
       </c>
       <c r="G11">
-        <v>0.08511280447677876</v>
+        <v>0.3270694328607173</v>
       </c>
       <c r="H11">
-        <v>0.2029584503028896</v>
+        <v>0.4476415094339622</v>
       </c>
       <c r="I11">
-        <v>0.5161290322580645</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0.1571264833787665</v>
+      </c>
+      <c r="D12">
+        <v>0.1599494480888952</v>
+      </c>
+      <c r="E12">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="F12">
+        <v>0.04737588037018294</v>
+      </c>
+      <c r="G12">
+        <v>0.08511280447677876</v>
+      </c>
+      <c r="H12">
+        <v>0.2029584503028896</v>
+      </c>
+      <c r="I12">
+        <v>0.5161290322580645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
         <v>2018</v>
       </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0.2211272408732698</v>
+      </c>
+      <c r="D13">
+        <v>0.1727913654766892</v>
+      </c>
+      <c r="E13">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="F13">
+        <v>0.1303019724210159</v>
+      </c>
+      <c r="G13">
+        <v>0.2017804154302671</v>
+      </c>
+      <c r="H13">
+        <v>0.3022790966040224</v>
+      </c>
+      <c r="I13">
+        <v>0.4027777777777778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2007</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2008</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2009</v>
+      </c>
+      <c r="B4">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2010</v>
+      </c>
+      <c r="B5">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2011</v>
+      </c>
+      <c r="B6">
+        <v>3.941176470588236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2012</v>
+      </c>
+      <c r="B7">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2013</v>
+      </c>
+      <c r="B8">
+        <v>2.470588235294118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9">
+        <v>4.727272727272728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>3.857142857142857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>2.928571428571428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2017</v>
+      </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>0.2211272408732698</v>
-      </c>
-      <c r="D12">
-        <v>0.1727913654766892</v>
-      </c>
-      <c r="E12">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="F12">
-        <v>0.1303019724210159</v>
-      </c>
-      <c r="G12">
-        <v>0.2017804154302671</v>
-      </c>
-      <c r="H12">
-        <v>0.3022790966040224</v>
-      </c>
-      <c r="I12">
-        <v>0.4027777777777778</v>
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13">
+        <v>2.428571428571428</v>
       </c>
     </row>
   </sheetData>
